--- a/src/main/resources/errorCodes.xlsx
+++ b/src/main/resources/errorCodes.xlsx
@@ -5,38 +5,73 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IotProjects\poi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E674378-1C8B-4B41-9618-CB738C452703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33057A03-38D5-4C28-BFF0-7146537DCB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="4130" windowWidth="19200" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2940" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>错误码</t>
   </si>
   <si>
-    <t>映射CCMP错误码</t>
-  </si>
-  <si>
     <t>错误码描述</t>
   </si>
   <si>
     <t>当前停机原因不符合自主发起复机操作要求,只有主动申请停机一个原因的才允许自主复机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射的CCMP错误码</t>
+  </si>
+  <si>
+    <t>错误码类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴权类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12141</t>
+  </si>
+  <si>
+    <t>12142</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>40001</t>
   </si>
 </sst>
 </file>
@@ -84,8 +119,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,46 +402,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="38.08203125" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>12141</v>
-      </c>
-      <c r="B2" s="1">
-        <v>40201</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+    <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
